--- a/easyexcel-core/src/test/resources/fill/annotation.xlsx
+++ b/easyexcel-core/src/test/resources/fill/annotation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/src/test/resources/fill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/easyexcel-core/src/test/resources/fill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15437BB4-C07A-CA4E-883D-7BC0A0DFD31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0FC88C-C841-7644-9096-435555C7817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>数字</t>
   </si>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>{.date}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.image}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -427,9 +435,10 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -442,8 +451,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -455,6 +467,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
